--- a/data/Top 100 Cities Firearm Dealers.xlsx
+++ b/data/Top 100 Cities Firearm Dealers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterholger/Desktop/Git/US-Gun-Manufacturing-Interactive/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E410CD5D-7190-DB4C-B329-A10F0E2DAB91}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722238EB-CC85-7B40-BA30-C6E88ED80819}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="440" windowWidth="27460" windowHeight="16040" xr2:uid="{C595A894-A332-8A4F-ACEA-B84C4FD9A7FC}"/>
+    <workbookView xWindow="15780" yWindow="440" windowWidth="12940" windowHeight="16040" activeTab="1" xr2:uid="{C595A894-A332-8A4F-ACEA-B84C4FD9A7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 100 Cities By Gun Dealers" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="158">
   <si>
     <t>City</t>
   </si>
@@ -439,6 +440,66 @@
   </si>
   <si>
     <t>Nampa</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Winchester</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Shreveport</t>
+  </si>
+  <si>
+    <t>Lakewood</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>Fredericksburg</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Laredo</t>
+  </si>
+  <si>
+    <t>Waco</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>Raleign</t>
   </si>
 </sst>
 </file>
@@ -796,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AD5449-2732-0644-B226-5A45927AE60B}">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2673,4 +2734,1708 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2D10B-5CD5-424D-B8E2-D4CB158EB9F2}">
+  <dimension ref="A1:E126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:E128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>323</v>
+      </c>
+      <c r="D2">
+        <v>29.760427</v>
+      </c>
+      <c r="E2">
+        <v>-95.369804000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>29.424122000000001</v>
+      </c>
+      <c r="E3">
+        <v>-98.493628999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>189</v>
+      </c>
+      <c r="D4">
+        <v>33.448376000000003</v>
+      </c>
+      <c r="E4">
+        <v>-112.07403600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>143</v>
+      </c>
+      <c r="D5">
+        <v>38.83522</v>
+      </c>
+      <c r="E5">
+        <v>-104.819801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>61.218055999999997</v>
+      </c>
+      <c r="E7">
+        <v>-149.900284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>127</v>
+      </c>
+      <c r="D8">
+        <v>35.467559999999999</v>
+      </c>
+      <c r="E8">
+        <v>-97.516425999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>32.755488999999997</v>
+      </c>
+      <c r="E10">
+        <v>-97.330765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>107</v>
+      </c>
+      <c r="D11">
+        <v>30.332184000000002</v>
+      </c>
+      <c r="E11">
+        <v>-81.655647000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>30.267153</v>
+      </c>
+      <c r="E12">
+        <v>-97.743056999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>104</v>
+      </c>
+      <c r="D13">
+        <v>32.776665000000001</v>
+      </c>
+      <c r="E13">
+        <v>-96.796988999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>102</v>
+      </c>
+      <c r="D14">
+        <v>31.8064</v>
+      </c>
+      <c r="E14">
+        <v>-106.2221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15">
+        <v>38.254199999999997</v>
+      </c>
+      <c r="E15">
+        <v>-85.759399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>35.373291000000002</v>
+      </c>
+      <c r="E16">
+        <v>-119.018715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <v>36.1663</v>
+      </c>
+      <c r="E17">
+        <v>-115.14919999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>35.221995999999997</v>
+      </c>
+      <c r="E18">
+        <v>-101.831299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>33.5779</v>
+      </c>
+      <c r="E19">
+        <v>-101.8552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>33.415184000000004</v>
+      </c>
+      <c r="E20">
+        <v>-111.831474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>88</v>
+      </c>
+      <c r="D21">
+        <v>25.761680999999999</v>
+      </c>
+      <c r="E21">
+        <v>-80.191788000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <v>36.101199999999999</v>
+      </c>
+      <c r="E22">
+        <v>-95.9251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>37.6922</v>
+      </c>
+      <c r="E23">
+        <v>-97.337500000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>45.782649999999997</v>
+      </c>
+      <c r="E24">
+        <v>-108.504578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>33.509099999999997</v>
+      </c>
+      <c r="E25">
+        <v>-111.89919999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>43.615000000000002</v>
+      </c>
+      <c r="E26">
+        <v>-116.20440000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>45.512230000000002</v>
+      </c>
+      <c r="E27">
+        <v>-122.658722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>27.947800000000001</v>
+      </c>
+      <c r="E28">
+        <v>-82.458399999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>39.101500000000001</v>
+      </c>
+      <c r="E29">
+        <v>-84.512500000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>31.8369</v>
+      </c>
+      <c r="E30">
+        <v>-102.0104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>32.735686999999999</v>
+      </c>
+      <c r="E32">
+        <v>-97.108063000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>39.529299999999999</v>
+      </c>
+      <c r="E33">
+        <v>-119.8137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2">
+        <v>68</v>
+      </c>
+      <c r="D34">
+        <v>32.522199999999998</v>
+      </c>
+      <c r="E34">
+        <v>-93.765199999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>35.227086999999997</v>
+      </c>
+      <c r="E35">
+        <v>-80.843126999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="2">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>39.768402999999999</v>
+      </c>
+      <c r="E36">
+        <v>-86.158068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2">
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <v>46.681628000000003</v>
+      </c>
+      <c r="E37">
+        <v>-109.341455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="2">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>41.14</v>
+      </c>
+      <c r="E38">
+        <v>-104.8202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>44.058199999999999</v>
+      </c>
+      <c r="E39">
+        <v>-121.31529999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>39.962299999999999</v>
+      </c>
+      <c r="E40">
+        <v>-83.000699999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>37.215519</v>
+      </c>
+      <c r="E41">
+        <v>-93.292357999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>31.463771999999999</v>
+      </c>
+      <c r="E42">
+        <v>-100.437037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>35.149534000000003</v>
+      </c>
+      <c r="E43">
+        <v>-90.04898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="E44">
+        <v>-90.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>64.837800000000001</v>
+      </c>
+      <c r="E45">
+        <v>-147.71639999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2">
+        <v>57</v>
+      </c>
+      <c r="D46">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="E46">
+        <v>-90.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>30.438255999999999</v>
+      </c>
+      <c r="E47">
+        <v>-84.280732999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>44.9392</v>
+      </c>
+      <c r="E48">
+        <v>-123.0331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>36.852925999999997</v>
+      </c>
+      <c r="E49">
+        <v>-75.977985000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>27.800583</v>
+      </c>
+      <c r="E50">
+        <v>-97.396381000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>44.081200000000003</v>
+      </c>
+      <c r="E51">
+        <v>-103.22799999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>41.258699999999997</v>
+      </c>
+      <c r="E52">
+        <v>-95.937899999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="2">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>46.589145000000002</v>
+      </c>
+      <c r="E53">
+        <v>-112.039106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>30.079940000000001</v>
+      </c>
+      <c r="E54">
+        <v>-95.417159999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>30.451467999999998</v>
+      </c>
+      <c r="E55">
+        <v>-91.187146999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2">
+        <v>53</v>
+      </c>
+      <c r="D57">
+        <v>33.538651999999999</v>
+      </c>
+      <c r="E57">
+        <v>-112.185987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="2">
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>44.052070999999998</v>
+      </c>
+      <c r="E59">
+        <v>-123.086754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>52</v>
+      </c>
+      <c r="D60">
+        <v>30.311876999999999</v>
+      </c>
+      <c r="E60">
+        <v>-95.456051000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2">
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>46.870100000000001</v>
+      </c>
+      <c r="E61">
+        <v>-113.9953</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="2">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>61.582799999999999</v>
+      </c>
+      <c r="E62">
+        <v>-149.43809999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>30.421309000000001</v>
+      </c>
+      <c r="E63">
+        <v>-87.216915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="2">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>42.850076999999999</v>
+      </c>
+      <c r="E64">
+        <v>-106.325175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>39.729432000000003</v>
+      </c>
+      <c r="E65">
+        <v>-104.83192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>49</v>
+      </c>
+      <c r="D66">
+        <v>32.351260000000003</v>
+      </c>
+      <c r="E66">
+        <v>-95.301062000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="2">
+        <v>49</v>
+      </c>
+      <c r="D67">
+        <v>29.187199</v>
+      </c>
+      <c r="E67">
+        <v>-82.140091999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="2">
+        <v>49</v>
+      </c>
+      <c r="D68">
+        <v>48.202300000000001</v>
+      </c>
+      <c r="E68">
+        <v>-114.3167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="2">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>39.047345</v>
+      </c>
+      <c r="E69">
+        <v>-95.675157999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="2">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>46.808326999999998</v>
+      </c>
+      <c r="E70">
+        <v>-100.783739</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72">
+        <v>47</v>
+      </c>
+      <c r="D72">
+        <v>34.210388999999999</v>
+      </c>
+      <c r="E72">
+        <v>-77.886812000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="2">
+        <v>47</v>
+      </c>
+      <c r="D73">
+        <v>34.540024000000003</v>
+      </c>
+      <c r="E73">
+        <v>-112.468502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="2">
+        <v>47</v>
+      </c>
+      <c r="D74">
+        <v>39.112476999999998</v>
+      </c>
+      <c r="E74">
+        <v>-108.533034</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="2">
+        <v>47</v>
+      </c>
+      <c r="D75">
+        <v>44.291091999999999</v>
+      </c>
+      <c r="E75">
+        <v>-105.50222100000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="2">
+        <v>46</v>
+      </c>
+      <c r="D79">
+        <v>43.578817000000001</v>
+      </c>
+      <c r="E79">
+        <v>-116.55978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="2">
+        <v>46</v>
+      </c>
+      <c r="D80">
+        <v>45.68</v>
+      </c>
+      <c r="E80">
+        <v>-111.04470000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45</v>
+      </c>
+      <c r="D82">
+        <v>39.739235999999998</v>
+      </c>
+      <c r="E82">
+        <v>-104.990251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45</v>
+      </c>
+      <c r="D84">
+        <v>43.544595999999999</v>
+      </c>
+      <c r="E84">
+        <v>-96.731103000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44</v>
+      </c>
+      <c r="D88">
+        <v>47.658900000000003</v>
+      </c>
+      <c r="E88">
+        <v>-117.4247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>36.737797999999998</v>
+      </c>
+      <c r="E89">
+        <v>-119.787125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>32.319940000000003</v>
+      </c>
+      <c r="E90">
+        <v>-106.763654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2">
+        <v>43</v>
+      </c>
+      <c r="D93">
+        <v>33.019843000000002</v>
+      </c>
+      <c r="E93">
+        <v>-96.698886000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43</v>
+      </c>
+      <c r="D96">
+        <v>35.652831999999997</v>
+      </c>
+      <c r="E96">
+        <v>-97.478094999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43</v>
+      </c>
+      <c r="D97">
+        <v>26.562854000000002</v>
+      </c>
+      <c r="E97">
+        <v>-81.949533000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98">
+        <v>42</v>
+      </c>
+      <c r="D98">
+        <v>35.052664</v>
+      </c>
+      <c r="E98">
+        <v>-78.878358000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99">
+        <v>42</v>
+      </c>
+      <c r="D99">
+        <v>30.22409</v>
+      </c>
+      <c r="E99">
+        <v>-92.019842999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="2">
+        <v>42</v>
+      </c>
+      <c r="D101">
+        <v>39.518599999999999</v>
+      </c>
+      <c r="E101">
+        <v>-104.761363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="C126" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E128">
+    <sortCondition descending="1" ref="C2:C128"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>